--- a/data-raw/metadata_generated_by_flowwest/trap-metadata.xlsx
+++ b/data-raw/metadata_generated_by_flowwest/trap-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erincain/Documents/Git/CVPIA/data-stewardship/EDI_data_repos_to_upload/rbdd-rst-edi/data-raw/metadata_generated_by_flowwest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE01315-7A0F-DF40-BE34-29FDA6D91FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C08904-00AB-6640-A81E-2CD2E9B14015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="-19180" windowWidth="19540" windowHeight="16360" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="-19180" windowWidth="25200" windowHeight="16360" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -235,25 +235,10 @@
     <t>whole</t>
   </si>
   <si>
-    <t>cubic feet</t>
-  </si>
-  <si>
     <t>real</t>
   </si>
   <si>
-    <t>feet</t>
-  </si>
-  <si>
-    <t>feet per second</t>
-  </si>
-  <si>
     <t>NTU</t>
-  </si>
-  <si>
-    <t>celcius</t>
-  </si>
-  <si>
-    <t>cubic feet per second</t>
   </si>
   <si>
     <t>tubs</t>
@@ -266,6 +251,21 @@
   </si>
   <si>
     <t>unitless</t>
+  </si>
+  <si>
+    <t>cubicFeetPerSecond</t>
+  </si>
+  <si>
+    <t>celsius</t>
+  </si>
+  <si>
+    <t>feetPerSecond</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cubicFeet </t>
   </si>
 </sst>
 </file>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMG16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16"/>
@@ -914,7 +914,7 @@
         <v>66</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>68</v>
@@ -986,10 +986,10 @@
         <v>66</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="4">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>75</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L13" s="4">
         <v>0</v>
@@ -1065,20 +1065,20 @@
         <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L14" s="4">
         <v>-20</v>
@@ -1105,10 +1105,10 @@
         <v>66</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L15" s="4">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="68">
+    <row r="16" spans="1:13" ht="51">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1135,10 +1135,10 @@
         <v>66</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L16" s="4">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         <v>66</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="4">
         <v>0</v>
@@ -1221,10 +1221,10 @@
         <v>66</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L20" s="4">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>66</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L22" s="4">
         <v>0</v>

--- a/data-raw/metadata_generated_by_flowwest/trap-metadata.xlsx
+++ b/data-raw/metadata_generated_by_flowwest/trap-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erincain/Documents/Git/CVPIA/data-stewardship/EDI_data_repos_to_upload/rbdd-rst-edi/data-raw/metadata_generated_by_flowwest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C08904-00AB-6640-A81E-2CD2E9B14015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A57949-DF50-DC42-978F-E2017821AEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="-19180" windowWidth="25200" windowHeight="16360" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10840" yWindow="-18620" windowWidth="25200" windowHeight="16360" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -18,6 +18,17 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -266,6 +277,12 @@
   </si>
   <si>
     <t xml:space="preserve">cubicFeet </t>
+  </si>
+  <si>
+    <t>sample_row_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique identifier for trap sample table based on julian date and year. Indicates if sample was included in analysis. Samples excluded from analysis contain a .0 </t>
   </si>
 </sst>
 </file>
@@ -758,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMG16384"/>
+  <dimension ref="A1:AMG16385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16"/>
@@ -822,12 +839,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="51">
+    <row r="2" spans="1:13" ht="136">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -836,35 +853,26 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17">
+    <row r="3" spans="1:13" ht="51">
       <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="6">
-        <v>34533</v>
-      </c>
-      <c r="M3" s="6">
-        <v>44900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>37</v>
@@ -873,79 +881,88 @@
         <v>37</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="6">
+        <v>34533</v>
+      </c>
+      <c r="M4" s="6">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L5" s="7">
         <v>0</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M5" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="85">
-      <c r="A5" t="s">
+    <row r="6" spans="1:13" ht="85">
+      <c r="A6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="119">
-      <c r="A6" t="s">
+    <row r="7" spans="1:13" ht="119">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="1" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L7" s="4">
         <v>0</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M7" s="4">
         <v>500000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="34">
-      <c r="A7" t="s">
+    <row r="8" spans="1:13" ht="34">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="119">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>59</v>
@@ -954,12 +971,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="255">
+    <row r="9" spans="1:13" ht="119">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>59</v>
@@ -968,57 +985,56 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="35.25" customHeight="1">
+    <row r="10" spans="1:13" ht="255">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="35.25" customHeight="1">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="1" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L11" s="4">
         <v>0</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M11" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="51">
-      <c r="A11" t="s">
+    <row r="12" spans="1:13" ht="51">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" ht="51">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>59</v>
@@ -1026,103 +1042,88 @@
       <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="85">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="51">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="85">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="34">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>69</v>
       </c>
       <c r="L14" s="4">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="M14" s="4">
-        <v>100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="34">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>69</v>
       </c>
       <c r="L15" s="4">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="M15" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="51">
+    <row r="16" spans="1:13" ht="34">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>66</v>
@@ -1135,7 +1136,7 @@
         <v>66</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>69</v>
@@ -1144,29 +1145,30 @@
         <v>0</v>
       </c>
       <c r="M16" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="102">
+    <row r="17" spans="1:13" ht="51">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="D17" s="12"/>
       <c r="E17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>78</v>
+      <c r="G17" s="13" t="s">
+        <v>77</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="13" t="s">
         <v>69</v>
       </c>
       <c r="L17" s="4">
@@ -1176,26 +1178,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17">
+    <row r="18" spans="1:13" ht="102">
       <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="17">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>59</v>
@@ -1204,95 +1221,106 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="34">
+    <row r="20" spans="1:13" ht="17">
       <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="34">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L21" s="4">
         <v>0</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M21" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="238">
-      <c r="A21" t="s">
+    <row r="22" spans="1:13" ht="238">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="34">
-      <c r="A22" t="s">
+    <row r="23" spans="1:13" ht="34">
+      <c r="A23" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L23" s="4">
         <v>0</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M23" s="4">
         <v>100000000</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="34">
-      <c r="A23" t="s">
+    <row r="24" spans="1:13" ht="34">
+      <c r="A24" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24"/>
-    </row>
     <row r="25" spans="1:13">
       <c r="A25"/>
     </row>
@@ -50373,21 +50401,24 @@
     <row r="16384" spans="1:1">
       <c r="A16384"/>
     </row>
+    <row r="16385" spans="1:1">
+      <c r="A16385"/>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C1020 C11:C12 C1:C5 C7:C9" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C1021 C12:C13 C8:C10 C1:C6" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E1020 E11:E12 E1:E5 E7:E9" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E1021 E12:E13 E8:E10 E1:E6" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:F1020 F11:F12 F1:F5 F7:F9" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F1021 F12:F13 F8:F10 F1:F6" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H1048576 H11:H12 H1:H5 H7:H9" xr:uid="{0E975802-AAEB-481A-9F6C-1EEB8BBDECAC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H1048576 H12:H13 H8:H10 H1:H6" xr:uid="{0E975802-AAEB-481A-9F6C-1EEB8BBDECAC}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
